--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02760603784098903</v>
+        <v>0.02618876268058203</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05273974054639428</v>
+        <v>0.05139920050651752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04965708164034588</v>
+        <v>0.04902365995475513</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1091332691799875</v>
+        <v>0.1097324390701155</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1408484330583478</v>
+        <v>0.1408051114567308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1087741098013943</v>
+        <v>0.1051415765989319</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1037809363483652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08541852972337616</v>
+        <v>0.08541852972337617</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04079122889411891</v>
+        <v>0.04008152998454646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07861710724313116</v>
+        <v>0.07766738379904847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.067105161499029</v>
+        <v>0.06654583777457412</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1054490363296476</v>
+        <v>0.10379804914147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1399467075512693</v>
+        <v>0.1347864392215938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1095306561853855</v>
+        <v>0.1090756073912745</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07226366125299929</v>
+        <v>0.07417082309167422</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1177406250970493</v>
+        <v>0.1198255500623278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1019425208158249</v>
+        <v>0.1021810712625507</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1232083940395613</v>
+        <v>0.127113799765174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.165352635892162</v>
+        <v>0.1673583182161112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1378945524613509</v>
+        <v>0.1374523948594604</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0984142814764143</v>
+        <v>0.09898506659867673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.172657802567456</v>
+        <v>0.1745143767506376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1434062298904747</v>
+        <v>0.1429818720249173</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1532168450820532</v>
+        <v>0.1502722863169907</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2193008314949756</v>
+        <v>0.220528240004582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1799440130550437</v>
+        <v>0.1780492852735538</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1323344635131846</v>
+        <v>0.1307093743820752</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2493183136288737</v>
+        <v>0.2491024909036766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1960161072396947</v>
+        <v>0.1977190066364655</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1883332746880918</v>
+        <v>0.186135001359432</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.304903476168184</v>
+        <v>0.3051903456375093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.240284561047873</v>
+        <v>0.2375984048974348</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1540641271510713</v>
+        <v>0.1528940260983415</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2510394875793271</v>
+        <v>0.2487024434289541</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2113705004184615</v>
+        <v>0.2131971653245524</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2172107666802124</v>
+        <v>0.2162682613826436</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3137714180502057</v>
+        <v>0.3109780485371782</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2578889294786816</v>
+        <v>0.2588271366364391</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.3602743287891218</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3249251944924401</v>
+        <v>0.32492519449244</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.232187474456851</v>
+        <v>0.2298425932792476</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3269726528250088</v>
+        <v>0.3274466437832042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3000867063772699</v>
+        <v>0.3009369823256548</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.314810167083278</v>
+        <v>0.3170099147243977</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3933576135387076</v>
+        <v>0.3940060164484103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.350793611757617</v>
+        <v>0.3506233421904412</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.1296060271455767</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.170018162692412</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11258</v>
+        <v>10680</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19119</v>
+        <v>18633</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38251</v>
+        <v>37763</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44504</v>
+        <v>44748</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51059</v>
+        <v>51044</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83789</v>
+        <v>80991</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19453</v>
+        <v>19114</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39445</v>
+        <v>38968</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65671</v>
+        <v>65123</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50288</v>
+        <v>49500</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70216</v>
+        <v>67627</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107189</v>
+        <v>106744</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44864</v>
+        <v>46048</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>73375</v>
+        <v>74674</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>126819</v>
+        <v>127116</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>76492</v>
+        <v>78917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103047</v>
+        <v>104297</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>171545</v>
+        <v>170995</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>68951</v>
+        <v>69351</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>127229</v>
+        <v>128597</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206147</v>
+        <v>205537</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>107346</v>
+        <v>105283</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>161600</v>
+        <v>162504</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>258670</v>
+        <v>255947</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80637</v>
+        <v>79647</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>151799</v>
+        <v>151667</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>238787</v>
+        <v>240862</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>114760</v>
+        <v>113421</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>185642</v>
+        <v>185817</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>292715</v>
+        <v>289443</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>62716</v>
+        <v>62240</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>110248</v>
+        <v>109222</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>178871</v>
+        <v>180417</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88422</v>
+        <v>88038</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>137798</v>
+        <v>136571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>218237</v>
+        <v>219031</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72024</v>
+        <v>71297</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>151914</v>
+        <v>152135</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>232509</v>
+        <v>233168</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>97653</v>
+        <v>98336</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>182757</v>
+        <v>183059</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>271797</v>
+        <v>271665</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
     </row>
     <row r="36">
